--- a/biology/Botanique/Riziculture_en_Italie/Riziculture_en_Italie.xlsx
+++ b/biology/Botanique/Riziculture_en_Italie/Riziculture_en_Italie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La riziculture en Italie est essentiellement concentrée dans la plaine du Pô et, dans une moindre mesure, dans les provinces de Ferrare, Vérone et Mantoue et en Sardaigne. Elle regroupe 5 000 producteurs sur 120 000 hectares de rizières irriguées et représente une production annuelle de 1 440 000 tonnes, soit 60 % de la production européenne. Les prix du riz italien sont fixés par la bourse de Verceil[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La riziculture en Italie est essentiellement concentrée dans la plaine du Pô et, dans une moindre mesure, dans les provinces de Ferrare, Vérone et Mantoue et en Sardaigne. Elle regroupe 5 000 producteurs sur 120 000 hectares de rizières irriguées et représente une production annuelle de 1 440 000 tonnes, soit 60 % de la production européenne. Les prix du riz italien sont fixés par la bourse de Verceil.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En Italie la culture du riz est concentrée principalement dans une zone limitée de la plaine du Pô comprise entre le Pô et les Préalpes qui s'étend aux provinces de Pavie (surtout la Lomelline) et Milan en Lombardie et aux provinces de Novare et Verceil dans le Piémont. D'autres importantes zones de production se trouvent dans les provinces de Ferrare, Vérone et Mantoue et en Sardaigne où les rizières sont présentes dans la plaine campidanese près d'Oristano. Dans le passé, la culture du riz était également répandue plus à l'est, dans les basses plaines bolonaise et ferrarese ; les zones de meilleures productions étaient situées entre Molinella et Argenta et dans les Valli del Mezzano.
@@ -549,7 +563,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Italie, comme en Espagne et en France, on cultive diverses variétés de japonica (grains mi-longs et ronds). Le riz brut ou riz paddy (nom international), riso greggio en Italie, est séché à un degré d’humidité de 12 à 14 pour cent pour éviter tout problème lors du traitement ultérieur. À un degré d’humidité supérieur, il commence à fermenter et se détériore.
 La culture du riz commence par la préparation des rizières. L'opération débute par le labourage, sur une faible profondeur, pour aérer le sol rendu compact par les submersions précédentes. Vient ensuite le hersage pour émietter la terre, suivi par une première fertilisation. L'ensemencement se déroule au printemps (avril - mai), à l'aide d'un semoir ; pour éviter que la graine ne flotte, elle doit préalablement être trempée. Les semailles se font à la volée, par des moyens mécaniques, dans les rizières inondées (ou rizières submergées). Le terrain des rizières, parfaitement nivelé, est divisé en bassins peu profonds appelés camere (chambres), au moyen de petites levées de terre hautes de 30 à 40 cm. Les camere sont inondées et après quelques jours suivent les semailles du riz.
@@ -582,7 +598,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le caryopse du riz tout juste récolté est appelé risone ou riso grezzo (riz grège) ou riso vestito (riz en paille ou vêtu, i.e. glumacé, encore revêtu du péricarpe). Le risone est rendu comestible par une suite d'opérations réalisées par l'industrie rizicole. Le nettoyage sépare les grains et les impuretés. Le décorticage est réalisé au moyen de deux disques abrasifs tournant en sens contraire et positionnés de manière à détacher les glumelles sans entamer l'embryon. Les glumelles forment la balle. L'opération donne le riso sbramato, utilisé dans la fabrication de la bière. Le blanchiment est un passage entre deux cônes gigognes dont la surface dépolie ôte les résidus de glumelle. Trois à quatre passages fournissent le riso raffinato (riz raffiné) dit semi-travaillé ou mercantile. Le glaçage fournit le riso comolino e oleato (riz huilé) qui s'obtient en huilant la surface du riz raffiné avec de l'huile de lin ou de la vaseline. Le riso brillato (riz poli), blanc, brillant et translucide est obtenu par une suite de préparations avec du talc et du glucose. C'est le riz utilisé dans l'alimentation humaine.
 </t>
@@ -613,7 +631,9 @@
           <t>Négoce</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plus importante bourse du riz se trouve à Verceil. La ville est en effet la « capitale du riz » en Italie. Elle doit sa suprématie essentiellement à sa position géographique, au centre de la zone qui, de 1860 à 1866, grâce à la construction du Canale Cavour, a vu sa transformation en l'une des plus importantes régions de culture du riz et en l'une des régions agricoles parmi les plus riches et les plus technologiquement avancées d'Italie. La bourse du riz, baromètre tant de la commercialisation du riz que de la tendance économique de la région, étroitement connectée au marché rizicole, est ouverte le mardi et le vendredi matin. S'y rencontrent les producteurs de toutes les régions. On y discute de politique, des prix, des taxes, du temps, des récoltes, etc.
 L'ora della verità « sonne » au premier étage de la bourse, où se trouve un « mini moulin du riz ». C'est là que sont prélevés exactement 100 g d'échantillon du riso greggio livré. Nettoyé, décortiqué, blanchi et apparié, avec l'équipement approprié, en fonction de son épaisseur et de sa longueur, ils donnent un « produit » d'environ 70 à 75 g. Exprimé en pourcentage, ce poids représente le rendement net par type de riz.
@@ -646,15 +666,51 @@
           <t>Dénominations et indications protégées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En Italie, trois territoires rizicoles sont protégés par des labels de qualités européens:
 Riso di Baraggia Biellese e Vercellese  DOP
 Riso del Delta del Po IGP
 Riso Nano Vialone Veronese  IGP
-Riso Maratelli 
-Presidio Slow Food
-Dans la province de Vicence, à Grumolo, le riz introduit par les religieuses bénédictines se cultivait déjà depuis le Cinquecento. En raison de son caractère culinaire exceptionnel (par exemple avec le risotto) le Presidio souhaite sauvegarder et encourager la reprise de la culture de l'excellent  vialone nano  sous la dénomination de Riso di Grumolo delle Abbadesse (it).
+Riso Maratelli </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Riziculture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Riziculture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dénominations et indications protégées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Presidio Slow Food</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la province de Vicence, à Grumolo, le riz introduit par les religieuses bénédictines se cultivait déjà depuis le Cinquecento. En raison de son caractère culinaire exceptionnel (par exemple avec le risotto) le Presidio souhaite sauvegarder et encourager la reprise de la culture de l'excellent  vialone nano  sous la dénomination de Riso di Grumolo delle Abbadesse (it).
 </t>
         </is>
       </c>
